--- a/notes/sara_program_notes.xlsx
+++ b/notes/sara_program_notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arc\dfs\unix\scratch\m1kms01\transit_credit-access\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\transit_credit-access\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCB3CAD1-2845-4483-ABE7-12E06B310889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5144A3B-DA82-49B0-8B30-9F6D0FBB66DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2160" windowWidth="29040" windowHeight="15840" xr2:uid="{19DB5427-64B2-47D0-8A83-88CE42E0DEB4}"/>
+    <workbookView xWindow="4245" yWindow="3600" windowWidth="21795" windowHeight="13800" xr2:uid="{19DB5427-64B2-47D0-8A83-88CE42E0DEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="235">
   <si>
     <t>University</t>
   </si>
@@ -375,12 +375,6 @@
   </si>
   <si>
     <t>Can do unofficial scores(?)</t>
-  </si>
-  <si>
-    <t>Upenn</t>
-  </si>
-  <si>
-    <t>9, PA</t>
   </si>
   <si>
     <t>Fernando Ferreira (Applied Econ Faculty)</t>
@@ -464,9 +458,6 @@
     <t>PA</t>
   </si>
   <si>
-    <t>Required. Self reported scores can be submitted pending receipt of official scores</t>
-  </si>
-  <si>
     <t>Columbia</t>
   </si>
   <si>
@@ -768,6 +759,12 @@
   </si>
   <si>
     <t>Marco Giacoletti- financey housing paper</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan </t>
   </si>
 </sst>
 </file>
@@ -988,15 +985,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1006,33 +1036,9 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1041,15 +1047,6 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,18 +1363,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97319F08-FD9A-4D32-8BBA-BEFF5291ED33}">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="56.765625" customWidth="1"/>
+    <col min="1" max="9" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,118 +1403,118 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="39">
         <v>45261</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+    <row r="3" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="4"/>
       <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="4"/>
       <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4"/>
       <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="40"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -1525,42 +1522,42 @@
       <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -1573,14 +1570,14 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1590,16 +1587,16 @@
       <c r="F13" s="10">
         <v>45259</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="31" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1609,38 +1606,38 @@
       <c r="F14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3"/>
       <c r="E16" s="13"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1648,33 +1645,33 @@
         <v>37</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="4"/>
       <c r="E18" s="13"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="4"/>
       <c r="E19" s="13"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G19" s="26"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -1682,10 +1679,10 @@
       <c r="E20" s="14"/>
       <c r="F20" s="5"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>40</v>
       </c>
@@ -1702,18 +1699,18 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="19">
@@ -1722,290 +1719,290 @@
       <c r="G22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="35"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="35"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="35"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="35"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="35"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
     </row>
-    <row r="37" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="28">
         <v>45261</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="43">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+    <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="38"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="44"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="3"/>
       <c r="E39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="38"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="41"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="44"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="3"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="38"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="41"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="44"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="38"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="41"/>
-    </row>
-    <row r="42" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="44"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="38"/>
+      <c r="F42" s="29"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="41"/>
-    </row>
-    <row r="43" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H42" s="26"/>
+      <c r="I42" s="44"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -2013,131 +2010,131 @@
         <v>70</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="39"/>
+      <c r="F43" s="30"/>
       <c r="G43" s="5"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="42"/>
-    </row>
-    <row r="44" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="26" t="s">
+      <c r="I43" s="45"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>4</v>
       </c>
-      <c r="C44" s="26"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="37">
+      <c r="E44" s="25"/>
+      <c r="F44" s="28">
         <v>45275</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-    </row>
-    <row r="53" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E52" s="26"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -2145,80 +2142,80 @@
         <v>85</v>
       </c>
       <c r="E53" s="27"/>
-      <c r="F53" s="39"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
     </row>
-    <row r="54" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="26" t="s">
+    <row r="54" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="37">
+      <c r="E54" s="25"/>
+      <c r="F54" s="28">
         <v>45261</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="25">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+    <row r="55" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="38"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="29"/>
       <c r="G55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="38"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="38"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -2226,12 +2223,12 @@
         <v>93</v>
       </c>
       <c r="E58" s="27"/>
-      <c r="F58" s="39"/>
+      <c r="F58" s="30"/>
       <c r="G58" s="5"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
     </row>
-    <row r="59" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>97</v>
       </c>
@@ -2254,19 +2251,19 @@
       </c>
       <c r="I59" s="11"/>
     </row>
-    <row r="60" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="26" t="s">
+    <row r="60" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="31" t="s">
+      <c r="E60" s="25"/>
+      <c r="F60" s="34" t="s">
         <v>109</v>
       </c>
       <c r="G60" s="15" t="s">
@@ -2275,65 +2272,65 @@
       <c r="H60" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="25">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+    <row r="61" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="32"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="42"/>
       <c r="G61" s="3"/>
       <c r="H61" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I61" s="25"/>
-    </row>
-    <row r="62" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="32"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="42"/>
       <c r="G62" s="15" t="s">
         <v>111</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="I62" s="26"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="32"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="42"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="25"/>
-      <c r="F64" s="32"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="42"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="25"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
@@ -2341,961 +2338,955 @@
         <v>108</v>
       </c>
       <c r="E65" s="27"/>
-      <c r="F65" s="33"/>
+      <c r="F65" s="35"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="27"/>
     </row>
-    <row r="66" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="26" t="s">
+    <row r="66" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="E66" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F66" s="37">
+        <v>120</v>
+      </c>
+      <c r="F66" s="28">
         <v>45275</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I66" s="26">
+      <c r="H66" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I66" s="25">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+    <row r="67" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="29"/>
+      <c r="G67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="29"/>
+      <c r="G68" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E69" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="38"/>
-      <c r="G67" s="3" t="s">
+      <c r="F69" s="29"/>
+      <c r="G69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="3" t="s">
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E70" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F68" s="38"/>
-      <c r="G68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="38"/>
-      <c r="G69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-    </row>
-    <row r="70" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="38"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-    </row>
-    <row r="71" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="3"/>
       <c r="E71" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" s="38"/>
+        <v>125</v>
+      </c>
+      <c r="F71" s="29"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="3"/>
       <c r="E72" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="38"/>
+      <c r="F72" s="29"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-    </row>
-    <row r="73" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="38"/>
+      <c r="F73" s="29"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="F74" s="38"/>
+      <c r="F74" s="29"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-    </row>
-    <row r="75" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="38"/>
+      <c r="F75" s="29"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-    </row>
-    <row r="76" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="38"/>
+      <c r="F76" s="29"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-    </row>
-    <row r="77" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="11"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="39"/>
+      <c r="F77" s="30"/>
       <c r="G77" s="5"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
     </row>
-    <row r="78" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="20">
+      <c r="C78" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="F78" s="28">
         <v>45275</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="26" t="s">
+      <c r="G78" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="E79" s="26"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E80" s="26"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="26"/>
-      <c r="F79" s="37">
-        <v>45275</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I79" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" s="25"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I80" s="25"/>
-    </row>
-    <row r="81" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="25"/>
-    </row>
-    <row r="82" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="38"/>
+      <c r="I81" s="26"/>
+    </row>
+    <row r="82" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="29"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="25"/>
-    </row>
-    <row r="83" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="38"/>
+      <c r="I82" s="26"/>
+    </row>
+    <row r="83" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="29"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="25"/>
-    </row>
-    <row r="84" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
+      <c r="I83" s="26"/>
+    </row>
+    <row r="84" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E84" s="25"/>
-      <c r="F84" s="38"/>
+        <v>139</v>
+      </c>
+      <c r="E84" s="26"/>
+      <c r="F84" s="29"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="25"/>
-    </row>
-    <row r="85" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="38"/>
+        <v>140</v>
+      </c>
+      <c r="E85" s="26"/>
+      <c r="F85" s="29"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="25"/>
-    </row>
-    <row r="86" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="25"/>
-    </row>
-    <row r="87" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="27"/>
-    </row>
-    <row r="88" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>149</v>
-      </c>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="27"/>
+    </row>
+    <row r="87" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" s="19">
+        <v>45278</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87" s="25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="26"/>
       <c r="D88" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F88" s="19">
-        <v>45278</v>
-      </c>
-      <c r="G88" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H88" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I88" s="26">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-    </row>
-    <row r="90" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-    </row>
-    <row r="91" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-    </row>
-    <row r="92" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="3"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+    </row>
+    <row r="92" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-    </row>
-    <row r="93" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-    </row>
-    <row r="94" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-    </row>
-    <row r="95" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+    </row>
+    <row r="95" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-    </row>
-    <row r="96" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+    </row>
+    <row r="96" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-    </row>
-    <row r="97" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+    </row>
+    <row r="97" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-    </row>
-    <row r="98" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+    </row>
+    <row r="98" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-    </row>
-    <row r="99" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="3"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+    </row>
+    <row r="99" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-    </row>
-    <row r="100" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-    </row>
-    <row r="101" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-    </row>
-    <row r="102" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="26" t="s">
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+    </row>
+    <row r="100" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="25"/>
+      <c r="D101" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" s="25"/>
+      <c r="F101" s="28">
+        <v>45261</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I101" s="25"/>
+    </row>
+    <row r="102" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="3" t="s">
+      <c r="E102" s="27"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="37">
-        <v>45261</v>
-      </c>
-      <c r="G102" s="23" t="s">
+      <c r="H102" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I102" s="27"/>
+    </row>
+    <row r="103" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I102" s="26"/>
-    </row>
-    <row r="103" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E103" s="27"/>
-      <c r="F103" s="39"/>
+      <c r="B103" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="20">
+        <v>44941</v>
+      </c>
       <c r="G103" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I103" s="27"/>
-    </row>
-    <row r="104" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="20">
-        <v>44941</v>
-      </c>
-      <c r="G104" s="24" t="s">
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H104" s="11" t="s">
+      <c r="F104" s="39">
+        <v>45267</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H104" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I104" s="11"/>
-    </row>
-    <row r="105" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B105" s="26" t="s">
+      <c r="I104" s="25"/>
+    </row>
+    <row r="105" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="34" t="s">
+      <c r="H105" s="35"/>
+      <c r="I105" s="27"/>
+    </row>
+    <row r="106" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="F105" s="28">
-        <v>45267</v>
-      </c>
-      <c r="G105" s="23" t="s">
+      <c r="B106" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H105" s="31" t="s">
+      <c r="C106" s="25"/>
+      <c r="D106" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" s="39">
+        <v>44930</v>
+      </c>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I106" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+    </row>
+    <row r="108" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" s="37"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+    </row>
+    <row r="109" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+    </row>
+    <row r="110" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E110" s="37"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+    </row>
+    <row r="111" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+    </row>
+    <row r="112" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112" s="38"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+    </row>
+    <row r="113" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="25"/>
+      <c r="D113" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113" s="25"/>
+      <c r="F113" s="28">
+        <v>44927</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H113" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I105" s="26"/>
-    </row>
-    <row r="106" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H106" s="33"/>
-      <c r="I106" s="27"/>
-    </row>
-    <row r="107" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F107" s="28">
-        <v>44930</v>
-      </c>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="I107" s="26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-    </row>
-    <row r="109" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E109" s="35"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-    </row>
-    <row r="110" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-    </row>
-    <row r="111" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E111" s="35"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-    </row>
-    <row r="112" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-    </row>
-    <row r="113" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E113" s="36"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-    </row>
-    <row r="114" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>190</v>
-      </c>
+      <c r="I113" s="25"/>
+    </row>
+    <row r="114" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="26"/>
       <c r="D114" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E114" s="26"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+    </row>
+    <row r="115" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E115" s="26"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+    </row>
+    <row r="116" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+    </row>
+    <row r="117" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E114" s="26"/>
-      <c r="F114" s="37">
-        <v>44927</v>
-      </c>
-      <c r="G114" s="43" t="s">
+      <c r="E117" s="26"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+    </row>
+    <row r="118" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" s="27"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+    </row>
+    <row r="119" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="25"/>
+      <c r="D119" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H114" s="26" t="s">
+      <c r="E119" s="25"/>
+      <c r="F119" s="28">
+        <v>45275</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H119" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I114" s="26"/>
-    </row>
-    <row r="115" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E115" s="25"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-    </row>
-    <row r="116" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E116" s="25"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-    </row>
-    <row r="117" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-    </row>
-    <row r="118" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E118" s="25"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-    </row>
-    <row r="119" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-    </row>
-    <row r="120" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B120" s="26" t="s">
-        <v>198</v>
-      </c>
+      <c r="I119" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="26"/>
       <c r="D120" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E120" s="26"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+    </row>
+    <row r="121" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E121" s="26"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+    </row>
+    <row r="122" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E120" s="26"/>
-      <c r="F120" s="37">
+      <c r="E122" s="26"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
+    </row>
+    <row r="123" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E123" s="27"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+    </row>
+    <row r="124" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" s="25"/>
+      <c r="D124" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F124" s="28">
         <v>45275</v>
       </c>
-      <c r="G120" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="H120" s="26" t="s">
+      <c r="G124" s="25"/>
+      <c r="H124" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I120" s="26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E121" s="25"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-    </row>
-    <row r="122" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E122" s="25"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-    </row>
-    <row r="123" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E123" s="25"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-    </row>
-    <row r="124" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E124" s="27"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-    </row>
-    <row r="125" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B125" s="26" t="s">
-        <v>207</v>
-      </c>
+      <c r="I124" s="25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="26"/>
       <c r="D125" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="29"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
+    </row>
+    <row r="126" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="F126" s="30"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+    </row>
+    <row r="127" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B127" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F125" s="37">
-        <v>45275</v>
-      </c>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I125" s="26">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="38"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-    </row>
-    <row r="127" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="9" t="s">
+      <c r="C127" s="25"/>
+      <c r="D127" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F127" s="39"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-    </row>
-    <row r="128" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>213</v>
-      </c>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+    </row>
+    <row r="128" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="26"/>
       <c r="D128" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" s="26"/>
@@ -3303,305 +3294,233 @@
       <c r="H128" s="26"/>
       <c r="I128" s="26"/>
     </row>
-    <row r="129" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="3" t="s">
+    <row r="129" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+    </row>
+    <row r="130" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B130" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
-    </row>
-    <row r="130" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="11" t="s">
+      <c r="C130" s="25"/>
+      <c r="D130" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-    </row>
-    <row r="131" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="26" t="s">
+      <c r="E130" s="25"/>
+      <c r="F130" s="28">
+        <v>44927</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130" s="25"/>
+    </row>
+    <row r="131" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B131" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C131" s="26"/>
-      <c r="D131" s="3" t="s">
+      <c r="E131" s="27"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+    </row>
+    <row r="132" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E131" s="26"/>
-      <c r="F131" s="37">
-        <v>44927</v>
-      </c>
-      <c r="G131" s="26" t="s">
+      <c r="B132" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E132" s="25"/>
+      <c r="F132" s="28">
+        <v>45261</v>
+      </c>
+      <c r="G132" s="25"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="25"/>
+    </row>
+    <row r="133" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H131" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I131" s="26"/>
-    </row>
-    <row r="132" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-    </row>
-    <row r="133" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="26" t="s">
+      <c r="I133" s="27"/>
+    </row>
+    <row r="134" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B133" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26" t="s">
+      <c r="B134" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E133" s="26"/>
-      <c r="F133" s="37">
-        <v>45261</v>
-      </c>
-      <c r="G133" s="26"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="26"/>
-    </row>
-    <row r="134" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="11" t="s">
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I134" s="27"/>
-    </row>
-    <row r="135" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B135" s="26" t="s">
-        <v>226</v>
-      </c>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+    </row>
+    <row r="135" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="26"/>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" s="26"/>
       <c r="G135" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H135" s="26"/>
       <c r="I135" s="26"/>
     </row>
-    <row r="136" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="3" t="s">
+    <row r="136" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+    </row>
+    <row r="137" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B137" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-    </row>
-    <row r="137" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="11" t="s">
+      <c r="C137" s="25"/>
+      <c r="D137" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-    </row>
-    <row r="138" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>231</v>
-      </c>
+      <c r="E137" s="25"/>
+      <c r="F137" s="28">
+        <v>45261</v>
+      </c>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+    </row>
+    <row r="138" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="26"/>
       <c r="D138" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E138" s="26"/>
-      <c r="F138" s="37">
-        <v>45261</v>
-      </c>
+      <c r="F138" s="29"/>
       <c r="G138" s="26"/>
       <c r="H138" s="26"/>
       <c r="I138" s="26"/>
     </row>
-    <row r="139" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
+    <row r="139" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
       <c r="D139" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E139" s="26"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+    </row>
+    <row r="140" spans="1:9" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E140" s="27"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>233</v>
       </c>
-      <c r="E139" s="25"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-    </row>
-    <row r="140" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="3" t="s">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>234</v>
       </c>
-      <c r="E140" s="25"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-    </row>
-    <row r="141" spans="1:9" ht="14.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E141" s="27"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="H135:H137"/>
-    <mergeCell ref="I135:I137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="I125:I127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="F128:F130"/>
-    <mergeCell ref="G128:G130"/>
-    <mergeCell ref="H128:H130"/>
-    <mergeCell ref="I128:I130"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="H114:H119"/>
-    <mergeCell ref="I114:I119"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="F120:F124"/>
-    <mergeCell ref="H120:H124"/>
-    <mergeCell ref="I120:I124"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="E114:E119"/>
-    <mergeCell ref="F114:F119"/>
-    <mergeCell ref="G114:G119"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="F107:F113"/>
-    <mergeCell ref="G107:G113"/>
-    <mergeCell ref="H107:H113"/>
-    <mergeCell ref="I107:I113"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A88:A101"/>
-    <mergeCell ref="B88:B101"/>
-    <mergeCell ref="C88:C101"/>
-    <mergeCell ref="G88:G101"/>
-    <mergeCell ref="H88:H101"/>
-    <mergeCell ref="I88:I101"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="C79:C87"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="I79:I87"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="B66:B77"/>
-    <mergeCell ref="C66:C77"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="H66:H77"/>
-    <mergeCell ref="I66:I77"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="H13:H20"/>
+    <mergeCell ref="I13:I20"/>
+    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="H37:H43"/>
+    <mergeCell ref="I37:I43"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="C22:C36"/>
+    <mergeCell ref="E22:E36"/>
+    <mergeCell ref="H22:H36"/>
+    <mergeCell ref="I22:I36"/>
     <mergeCell ref="A60:A65"/>
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="C60:C65"/>
@@ -3623,39 +3542,108 @@
     <mergeCell ref="E44:E53"/>
     <mergeCell ref="F44:F53"/>
     <mergeCell ref="G44:G53"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="H37:H43"/>
-    <mergeCell ref="I37:I43"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="C22:C36"/>
-    <mergeCell ref="E22:E36"/>
-    <mergeCell ref="H22:H36"/>
-    <mergeCell ref="I22:I36"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="H13:H20"/>
-    <mergeCell ref="I13:I20"/>
-    <mergeCell ref="I2:I9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="A78:A86"/>
+    <mergeCell ref="B78:B86"/>
+    <mergeCell ref="C78:C86"/>
+    <mergeCell ref="E78:E86"/>
+    <mergeCell ref="F78:F86"/>
+    <mergeCell ref="I78:I86"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="B66:B77"/>
+    <mergeCell ref="C66:C77"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="H66:H77"/>
+    <mergeCell ref="I66:I77"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="C87:C100"/>
+    <mergeCell ref="G87:G100"/>
+    <mergeCell ref="H87:H100"/>
+    <mergeCell ref="I87:I100"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="G106:G112"/>
+    <mergeCell ref="H106:H112"/>
+    <mergeCell ref="I106:I112"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="H113:H118"/>
+    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="E113:E118"/>
+    <mergeCell ref="F113:F118"/>
+    <mergeCell ref="G113:G118"/>
+    <mergeCell ref="I124:I126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="G127:G129"/>
+    <mergeCell ref="H127:H129"/>
+    <mergeCell ref="I127:I129"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="I134:I136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="H137:H140"/>
+    <mergeCell ref="I137:I140"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F134:F136"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="https://www.nber.org/papers/w28271" xr:uid="{561006EA-4B6F-48EE-AC66-8DBBE06D2597}"/>
@@ -3675,14 +3663,14 @@
     <hyperlink ref="E70" r:id="rId15" display="https://www.nber.org/papers/w28993" xr:uid="{7F2F5401-4073-47DD-8D07-631E2DD3624A}"/>
     <hyperlink ref="E71" r:id="rId16" display="https://www.nber.org/papers/w27542" xr:uid="{87B4090E-A65D-46AF-928A-C46CE3EF8EA2}"/>
     <hyperlink ref="E72" r:id="rId17" display="https://www.nber.org/papers/w11097" xr:uid="{E5A17F6E-31CC-4C6C-90B9-F21C55465C6F}"/>
-    <hyperlink ref="E88" r:id="rId18" display="https://www.nber.org/papers/w30061" xr:uid="{ABC47235-CAE8-4CF0-8564-CA1FB7D863D7}"/>
-    <hyperlink ref="E89" r:id="rId19" display="https://www.nber.org/papers/w29796" xr:uid="{741D6976-7C50-4177-872D-CE2A12978F31}"/>
-    <hyperlink ref="E90" r:id="rId20" display="https://www.nber.org/papers/w28428" xr:uid="{13D7F0F7-8497-498F-9176-C818DA2ED9C5}"/>
-    <hyperlink ref="E105" r:id="rId21" display="https://www.nber.org/papers/w27542" xr:uid="{6B978D1F-50B8-4CE5-96EC-83912F3E771B}"/>
-    <hyperlink ref="E107" r:id="rId22" display="https://www.nber.org/papers/w27499" xr:uid="{7F76CD5F-04DE-462E-8259-5DA0474D9FAB}"/>
-    <hyperlink ref="E125" r:id="rId23" display="https://www.nber.org/papers/w28497" xr:uid="{78251FD6-FE14-4F02-9646-BB2B650AC39E}"/>
-    <hyperlink ref="E126" r:id="rId24" display="https://www.nber.org/papers/w14419" xr:uid="{FE77BE66-9D58-4DA7-8A09-358CD6126EA4}"/>
-    <hyperlink ref="E127" r:id="rId25" display="https://www.nber.org/papers/w29391" xr:uid="{48045826-B0BD-4671-9E64-B0F814361CFC}"/>
+    <hyperlink ref="E87" r:id="rId18" display="https://www.nber.org/papers/w30061" xr:uid="{ABC47235-CAE8-4CF0-8564-CA1FB7D863D7}"/>
+    <hyperlink ref="E88" r:id="rId19" display="https://www.nber.org/papers/w29796" xr:uid="{741D6976-7C50-4177-872D-CE2A12978F31}"/>
+    <hyperlink ref="E89" r:id="rId20" display="https://www.nber.org/papers/w28428" xr:uid="{13D7F0F7-8497-498F-9176-C818DA2ED9C5}"/>
+    <hyperlink ref="E104" r:id="rId21" display="https://www.nber.org/papers/w27542" xr:uid="{6B978D1F-50B8-4CE5-96EC-83912F3E771B}"/>
+    <hyperlink ref="E106" r:id="rId22" display="https://www.nber.org/papers/w27499" xr:uid="{7F76CD5F-04DE-462E-8259-5DA0474D9FAB}"/>
+    <hyperlink ref="E124" r:id="rId23" display="https://www.nber.org/papers/w28497" xr:uid="{78251FD6-FE14-4F02-9646-BB2B650AC39E}"/>
+    <hyperlink ref="E125" r:id="rId24" display="https://www.nber.org/papers/w14419" xr:uid="{FE77BE66-9D58-4DA7-8A09-358CD6126EA4}"/>
+    <hyperlink ref="E126" r:id="rId25" display="https://www.nber.org/papers/w29391" xr:uid="{48045826-B0BD-4671-9E64-B0F814361CFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>
